--- a/shahzad_websites_to_scrap.xlsx
+++ b/shahzad_websites_to_scrap.xlsx
@@ -1232,7 +1232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
